--- a/data/evaluation/evaluation_Center_Summer_Sweet Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Sweet Potatoes.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4198.321428571428</v>
+        <v>4197.607142857143</v>
       </c>
       <c r="C3" t="n">
-        <v>69192205.05357143</v>
+        <v>69191869.33928572</v>
       </c>
       <c r="D3" t="n">
-        <v>8318.185201927849</v>
+        <v>8318.16502236435</v>
       </c>
       <c r="E3" t="n">
-        <v>-96.1745121194206</v>
+        <v>-96.17404063752606</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4640.066846011131</v>
+        <v>4412.92624793857</v>
       </c>
       <c r="C4" t="n">
-        <v>71723559.4704154</v>
+        <v>66172819.17392261</v>
       </c>
       <c r="D4" t="n">
-        <v>8468.976294122886</v>
+        <v>8134.667735926441</v>
       </c>
       <c r="E4" t="n">
-        <v>-99.7295820910699</v>
+        <v>-91.93404385384108</v>
       </c>
     </row>
     <row r="5">
